--- a/data/plot_feng_shan.xlsx
+++ b/data/plot_feng_shan.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10715"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21727"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yeshan/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shan Ye\Documents\GitHub\paleo_data_spatial\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E7F6A16-DB4E-2A4D-9342-0F4B678FA4B6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B9E9C55-56E7-498A-8844-FA6AB5F8D1AE}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1380" yWindow="460" windowWidth="30720" windowHeight="18940" xr2:uid="{51F8EB64-7C10-0D47-BD7C-C106209717FA}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51F8EB64-7C10-0D47-BD7C-C106209717FA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,10 +18,16 @@
   <definedNames>
     <definedName name="glb" localSheetId="0">Sheet1!$A$1:$B$565</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -57,14 +63,14 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -99,7 +105,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -117,7 +123,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="zh-CN"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -556,382 +562,382 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="126"/>
                 <c:pt idx="0">
-                  <c:v>0.61766013799999997</c:v>
+                  <c:v>0.5360874776976533</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8.4555311999999994E-2</c:v>
+                  <c:v>0.12175195215824494</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.58983802900000004</c:v>
+                  <c:v>0.12220231771707375</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.25382870899999999</c:v>
+                  <c:v>4.9444229590253561E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.14893954300000001</c:v>
+                  <c:v>-2.1145257286855554E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.17785357600000001</c:v>
+                  <c:v>4.7852399044311725E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.14705733800000001</c:v>
+                  <c:v>1.6980041699076751E-3</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.17060370599999999</c:v>
+                  <c:v>4.3472528335597685E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.12982073899999999</c:v>
+                  <c:v>1.7114673661029072E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.157789715</c:v>
+                  <c:v>5.4935048174270307E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.152895956</c:v>
+                  <c:v>5.5061258878806758E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.122445136</c:v>
+                  <c:v>4.4861542755788505E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.156949375</c:v>
+                  <c:v>5.8187781081651943E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>8.6872132000000005E-2</c:v>
+                  <c:v>2.4833978156503351E-3</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>8.2015864999999993E-2</c:v>
+                  <c:v>1.177118834808962E-2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>5.6832184000000001E-2</c:v>
+                  <c:v>-1.3558167517808001E-2</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>6.3864836999999994E-2</c:v>
+                  <c:v>4.4429978076310651E-3</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>5.9539791000000002E-2</c:v>
+                  <c:v>-7.2153781050375938E-3</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>5.3472867E-2</c:v>
+                  <c:v>8.6832182010877987E-3</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>3.4531910999999998E-2</c:v>
+                  <c:v>1.3274547348916135E-2</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>7.3257681000000005E-2</c:v>
+                  <c:v>5.566652205111032E-2</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>6.2941863000000001E-2</c:v>
+                  <c:v>2.861266121487752E-2</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.1137538</c:v>
+                  <c:v>6.5588532189588183E-2</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.10725330299999999</c:v>
+                  <c:v>5.972581609162244E-2</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.147528609</c:v>
+                  <c:v>0.10104030115127641</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.14862049799999999</c:v>
+                  <c:v>9.7158261589053704E-2</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>8.9610869999999995E-2</c:v>
+                  <c:v>2.0922639418624284E-2</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>5.7204891000000001E-2</c:v>
+                  <c:v>-2.2114510160882749E-2</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>9.1054520999999999E-2</c:v>
+                  <c:v>1.9712764614156653E-2</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.104556169</c:v>
+                  <c:v>4.1945216479001811E-2</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>8.7525178999999995E-2</c:v>
+                  <c:v>3.3694210278024113E-2</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.117296661</c:v>
+                  <c:v>5.5955172735295579E-2</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.142539684</c:v>
+                  <c:v>6.9089655223787919E-2</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.18197132799999999</c:v>
+                  <c:v>0.1148203541597372</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.16968883200000001</c:v>
+                  <c:v>0.12513710335917672</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.12749660299999999</c:v>
+                  <c:v>8.8977099749195571E-2</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.175074481</c:v>
+                  <c:v>0.14727031143162644</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.20435120700000001</c:v>
+                  <c:v>0.16787755126716181</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.228766201</c:v>
+                  <c:v>0.18719733479273856</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.217287228</c:v>
+                  <c:v>0.18077635924576552</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0.246483813</c:v>
+                  <c:v>0.19885547185376062</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0.27022114400000002</c:v>
+                  <c:v>0.20359854157627399</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0.21592087700000001</c:v>
+                  <c:v>0.14736997962565884</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0.26157452399999997</c:v>
+                  <c:v>0.1876502437022089</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0.22672214199999999</c:v>
+                  <c:v>0.15272725740566051</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0.27574919399999998</c:v>
+                  <c:v>0.20261146025607019</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0.24775323599999999</c:v>
+                  <c:v>0.18386136488819729</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>0.26697323899999997</c:v>
+                  <c:v>0.20659891124372096</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>0.27361138400000001</c:v>
+                  <c:v>0.2132864783862769</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>0.256346093</c:v>
+                  <c:v>0.20139800724287701</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>0.32114661100000003</c:v>
+                  <c:v>0.25190524153494603</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>0.30059471199999999</c:v>
+                  <c:v>0.22338132215471568</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>0.29630546099999999</c:v>
+                  <c:v>0.22323570243367991</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>0.23470464599999999</c:v>
+                  <c:v>0.16255419451572498</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>0.215194896</c:v>
+                  <c:v>0.13736204500596796</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>0.267510894</c:v>
+                  <c:v>0.19710976381546597</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>0.31471272900000002</c:v>
+                  <c:v>0.24313609960772459</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>0.308853512</c:v>
+                  <c:v>0.24157947321222767</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>0.30383971500000001</c:v>
+                  <c:v>0.23330802894312319</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>0.258460733</c:v>
+                  <c:v>0.19361925337359903</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>0.27057420999999998</c:v>
+                  <c:v>0.20660153110407958</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>0.25783917000000001</c:v>
+                  <c:v>0.18793423767770492</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>0.25265386299999998</c:v>
+                  <c:v>0.18063302545484577</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>0.28313060400000001</c:v>
+                  <c:v>0.20258703646610371</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>0.27894744100000002</c:v>
+                  <c:v>0.20805929323373581</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>0.26658382899999999</c:v>
+                  <c:v>0.19629637971545905</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>0.30386231600000002</c:v>
+                  <c:v>0.22626574927363099</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>0.32254247800000002</c:v>
+                  <c:v>0.24721447692553894</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>0.31528128799999999</c:v>
+                  <c:v>0.23976511092425029</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>0.31230177199999998</c:v>
+                  <c:v>0.24048194204336401</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>0.223947269</c:v>
+                  <c:v>0.16457724669811943</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>0.170377004</c:v>
+                  <c:v>0.11855312681679922</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>0.205141931</c:v>
+                  <c:v>0.16092739812367218</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>0.25107782699999998</c:v>
+                  <c:v>0.18683217840781896</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>0.258500226</c:v>
+                  <c:v>0.19322533864019409</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>0.26745157400000003</c:v>
+                  <c:v>0.23002761261162277</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>0.24160916099999999</c:v>
+                  <c:v>0.18988937647851922</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>0.27906001400000002</c:v>
+                  <c:v>0.22113565600988977</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>0.28378035600000001</c:v>
+                  <c:v>0.2434367205836194</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>0.27175190599999999</c:v>
+                  <c:v>0.23948271514158578</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>0.27085888000000002</c:v>
+                  <c:v>0.24923485332180972</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>0.22257147799999999</c:v>
+                  <c:v>0.19437397977616624</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>0.21589604100000001</c:v>
+                  <c:v>0.19036297266596489</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>0.21586448599999999</c:v>
+                  <c:v>0.19971156938352039</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>0.28346897900000001</c:v>
+                  <c:v>0.27570443226886587</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>0.27627039399999997</c:v>
+                  <c:v>0.25682938869546568</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>0.282046941</c:v>
+                  <c:v>0.24611808991667933</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>0.24576458400000001</c:v>
+                  <c:v>0.22076365583652696</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>0.24806207599999999</c:v>
+                  <c:v>0.23130507503126307</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>0.25363233299999999</c:v>
+                  <c:v>0.25195065548145118</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>0.28619363799999997</c:v>
+                  <c:v>0.28609653737076535</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>0.29525098799999999</c:v>
+                  <c:v>0.29198202895909431</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>0.22347507899999999</c:v>
+                  <c:v>0.22116994015319719</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>0.22449808900000001</c:v>
+                  <c:v>0.22967890803303184</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>0.25909220700000002</c:v>
+                  <c:v>0.26736208925854898</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>0.20826581599999999</c:v>
+                  <c:v>0.22103672060966092</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>0.19719384000000001</c:v>
+                  <c:v>0.18806965760282687</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>0.18750487099999999</c:v>
+                  <c:v>0.17363432756364339</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>0.204096904</c:v>
+                  <c:v>0.17882618238502249</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>-2.9125153000000001E-2</c:v>
+                  <c:v>0.12510962708088191</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>0</c:v>
+                  <c:v>0.12933337715122262</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>2.3759606999999999E-2</c:v>
+                  <c:v>0.10056369360087036</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>5.0911675000000003E-2</c:v>
+                  <c:v>7.5752458862629421E-2</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>9.0070092000000004E-2</c:v>
+                  <c:v>6.5426164319699956E-2</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>6.0512638000000001E-2</c:v>
+                  <c:v>3.8620877965533602E-2</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>4.3391469000000002E-2</c:v>
+                  <c:v>1.5125400353437663E-2</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>-3.5198820999999998E-2</c:v>
+                  <c:v>-3.5024138146568948E-2</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>-7.8726807999999995E-2</c:v>
+                  <c:v>-7.6863235834202431E-2</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>-0.12481771999999999</c:v>
+                  <c:v>-0.12574334691006422</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>-0.18372883700000001</c:v>
+                  <c:v>-0.15799303758569944</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>-0.25016782500000001</c:v>
+                  <c:v>-0.22676835733935635</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>-0.29195259299999998</c:v>
+                  <c:v>-0.28296432884032774</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>-0.225866714</c:v>
+                  <c:v>-0.24815086589026003</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>-0.22203273700000001</c:v>
+                  <c:v>-0.25865987752984415</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>-0.31535819700000001</c:v>
+                  <c:v>-0.34199796123534282</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>-0.38825298699999999</c:v>
+                  <c:v>-0.39874931072622177</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>-0.45662408399999999</c:v>
+                  <c:v>-0.46252483452057652</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>-0.56913045500000004</c:v>
+                  <c:v>-0.5876167574811324</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>-0.58778358399999997</c:v>
+                  <c:v>-0.60897672787578139</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>-0.79948877900000004</c:v>
+                  <c:v>-0.82252586268391081</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>-0.76870639900000004</c:v>
+                  <c:v>-0.79058683278166975</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>-0.82333512900000005</c:v>
+                  <c:v>-0.85234494350606449</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>-0.83027974000000004</c:v>
+                  <c:v>-0.8572591146797619</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>-0.85723006700000004</c:v>
+                  <c:v>-0.8773521123410758</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>-0.88322422700000003</c:v>
+                  <c:v>-0.91120905592941026</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>-0.96734451300000002</c:v>
+                  <c:v>-1.018499390919084</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4479,10 +4485,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>10000</c:v>
+                  <c:v>8000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10000</c:v>
+                  <c:v>8000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4618,7 +4624,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="93800720"/>
@@ -4674,7 +4680,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="93830032"/>
@@ -4722,7 +4728,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="zh-CN"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -5294,15 +5300,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>165100</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:colOff>117475</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>139700</xdr:rowOff>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>168275</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5327,6 +5333,309 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1609287" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="TextBox 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F10F13CE-5625-4A23-B964-4DD404CE3C44}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8677275" y="7953375"/>
+          <a:ext cx="1609287" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>10750 (Feng's reference)</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2007281" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="TextBox 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B6A0BC7D-031D-436E-B4ED-F8250C933000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8162925" y="1762125"/>
+          <a:ext cx="2007281" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>8000 - 12000 (Shan's reference)</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>638174</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>95249</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>9524</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="Right Brace 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B4FB9FC3-A3B4-40C8-A8E7-8DBEAF649661}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000">
+          <a:off x="9010649" y="647699"/>
+          <a:ext cx="314325" cy="3209926"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightBrace">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="465320" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="TextBox 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{316DA94B-B911-46D9-9A48-D0D236BF2E4B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7905750" y="6143625"/>
+          <a:ext cx="465320" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Shan</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="460254" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="TextBox 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E2708360-1D10-4FBB-B6F6-E64F11BA47AC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12020550" y="4086225"/>
+          <a:ext cx="460254" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Feng</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -5335,7 +5644,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -5631,19 +5940,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EDB6668-95BD-B04D-A679-814D91F0E7A9}">
-  <dimension ref="A1:M565"/>
+  <dimension ref="A1:O565"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="V30" sqref="V30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="2" width="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.83203125" style="1"/>
+    <col min="4" max="4" width="10.875" style="1"/>
+    <col min="5" max="5" width="11" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="A1">
         <v>10</v>
       </c>
@@ -5653,7 +5963,7 @@
       <c r="D1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="H1">
@@ -5663,7 +5973,7 @@
         <v>-2</v>
       </c>
       <c r="J1">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="K1">
         <v>-2</v>
@@ -5674,8 +5984,14 @@
       <c r="M1">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1">
+        <v>12000</v>
+      </c>
+      <c r="O1">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2">
         <v>30</v>
       </c>
@@ -5685,8 +6001,8 @@
       <c r="D2" s="1">
         <v>0</v>
       </c>
-      <c r="E2">
-        <v>0.61766013799999997</v>
+      <c r="E2" s="1">
+        <v>0.5360874776976533</v>
       </c>
       <c r="H2">
         <v>10750</v>
@@ -5695,7 +6011,7 @@
         <v>1.5</v>
       </c>
       <c r="J2">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="K2">
         <v>1.5</v>
@@ -5706,8 +6022,14 @@
       <c r="M2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:13">
+      <c r="N2">
+        <v>12000</v>
+      </c>
+      <c r="O2">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3">
         <v>50</v>
       </c>
@@ -5717,11 +6039,11 @@
       <c r="D3" s="1">
         <v>100</v>
       </c>
-      <c r="E3">
-        <v>8.4555311999999994E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+      <c r="E3" s="1">
+        <v>0.12175195215824494</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4">
         <v>70</v>
       </c>
@@ -5731,11 +6053,11 @@
       <c r="D4" s="1">
         <v>200</v>
       </c>
-      <c r="E4">
-        <v>0.58983802900000004</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="E4" s="1">
+        <v>0.12220231771707375</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5">
         <v>90</v>
       </c>
@@ -5745,11 +6067,11 @@
       <c r="D5" s="1">
         <v>300</v>
       </c>
-      <c r="E5">
-        <v>0.25382870899999999</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+      <c r="E5" s="1">
+        <v>4.9444229590253561E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6">
         <v>110</v>
       </c>
@@ -5759,11 +6081,11 @@
       <c r="D6" s="1">
         <v>400</v>
       </c>
-      <c r="E6">
-        <v>0.14893954300000001</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+      <c r="E6" s="1">
+        <v>-2.1145257286855554E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7">
         <v>130</v>
       </c>
@@ -5773,11 +6095,11 @@
       <c r="D7" s="1">
         <v>500</v>
       </c>
-      <c r="E7">
-        <v>0.17785357600000001</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+      <c r="E7" s="1">
+        <v>4.7852399044311725E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8">
         <v>150</v>
       </c>
@@ -5787,11 +6109,11 @@
       <c r="D8" s="1">
         <v>600</v>
       </c>
-      <c r="E8">
-        <v>0.14705733800000001</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+      <c r="E8" s="1">
+        <v>1.6980041699076751E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9">
         <v>170</v>
       </c>
@@ -5801,11 +6123,11 @@
       <c r="D9" s="1">
         <v>700</v>
       </c>
-      <c r="E9">
-        <v>0.17060370599999999</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+      <c r="E9" s="1">
+        <v>4.3472528335597685E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10">
         <v>190</v>
       </c>
@@ -5815,11 +6137,11 @@
       <c r="D10" s="1">
         <v>800</v>
       </c>
-      <c r="E10">
-        <v>0.12982073899999999</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+      <c r="E10" s="1">
+        <v>1.7114673661029072E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11">
         <v>210</v>
       </c>
@@ -5829,11 +6151,11 @@
       <c r="D11" s="1">
         <v>900</v>
       </c>
-      <c r="E11">
-        <v>0.157789715</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+      <c r="E11" s="1">
+        <v>5.4935048174270307E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12">
         <v>230</v>
       </c>
@@ -5843,11 +6165,11 @@
       <c r="D12" s="1">
         <v>1000</v>
       </c>
-      <c r="E12">
-        <v>0.152895956</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+      <c r="E12" s="1">
+        <v>5.5061258878806758E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13">
         <v>250</v>
       </c>
@@ -5857,11 +6179,11 @@
       <c r="D13" s="1">
         <v>1100</v>
       </c>
-      <c r="E13">
-        <v>0.122445136</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+      <c r="E13" s="1">
+        <v>4.4861542755788505E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14">
         <v>270</v>
       </c>
@@ -5871,11 +6193,11 @@
       <c r="D14" s="1">
         <v>1200</v>
       </c>
-      <c r="E14">
-        <v>0.156949375</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+      <c r="E14" s="1">
+        <v>5.8187781081651943E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15">
         <v>290</v>
       </c>
@@ -5885,11 +6207,11 @@
       <c r="D15" s="1">
         <v>1300</v>
       </c>
-      <c r="E15">
-        <v>8.6872132000000005E-2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+      <c r="E15" s="1">
+        <v>2.4833978156503351E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16">
         <v>310</v>
       </c>
@@ -5899,8 +6221,8 @@
       <c r="D16" s="1">
         <v>1400</v>
       </c>
-      <c r="E16">
-        <v>8.2015864999999993E-2</v>
+      <c r="E16" s="1">
+        <v>1.177118834808962E-2</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -5913,8 +6235,8 @@
       <c r="D17" s="1">
         <v>1500</v>
       </c>
-      <c r="E17">
-        <v>5.6832184000000001E-2</v>
+      <c r="E17" s="1">
+        <v>-1.3558167517808001E-2</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -5927,8 +6249,8 @@
       <c r="D18" s="1">
         <v>1600</v>
       </c>
-      <c r="E18">
-        <v>6.3864836999999994E-2</v>
+      <c r="E18" s="1">
+        <v>4.4429978076310651E-3</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -5941,8 +6263,8 @@
       <c r="D19" s="1">
         <v>1700</v>
       </c>
-      <c r="E19">
-        <v>5.9539791000000002E-2</v>
+      <c r="E19" s="1">
+        <v>-7.2153781050375938E-3</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -5955,8 +6277,8 @@
       <c r="D20" s="1">
         <v>1800</v>
       </c>
-      <c r="E20">
-        <v>5.3472867E-2</v>
+      <c r="E20" s="1">
+        <v>8.6832182010877987E-3</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -5969,8 +6291,8 @@
       <c r="D21" s="1">
         <v>1900</v>
       </c>
-      <c r="E21">
-        <v>3.4531910999999998E-2</v>
+      <c r="E21" s="1">
+        <v>1.3274547348916135E-2</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -5983,8 +6305,8 @@
       <c r="D22" s="1">
         <v>2000</v>
       </c>
-      <c r="E22">
-        <v>7.3257681000000005E-2</v>
+      <c r="E22" s="1">
+        <v>5.566652205111032E-2</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -5997,8 +6319,8 @@
       <c r="D23" s="1">
         <v>2100</v>
       </c>
-      <c r="E23">
-        <v>6.2941863000000001E-2</v>
+      <c r="E23" s="1">
+        <v>2.861266121487752E-2</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -6011,8 +6333,8 @@
       <c r="D24" s="1">
         <v>2200</v>
       </c>
-      <c r="E24">
-        <v>0.1137538</v>
+      <c r="E24" s="1">
+        <v>6.5588532189588183E-2</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -6025,8 +6347,8 @@
       <c r="D25" s="1">
         <v>2300</v>
       </c>
-      <c r="E25">
-        <v>0.10725330299999999</v>
+      <c r="E25" s="1">
+        <v>5.972581609162244E-2</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -6039,8 +6361,8 @@
       <c r="D26" s="1">
         <v>2400</v>
       </c>
-      <c r="E26">
-        <v>0.147528609</v>
+      <c r="E26" s="1">
+        <v>0.10104030115127641</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -6053,8 +6375,8 @@
       <c r="D27" s="1">
         <v>2500</v>
       </c>
-      <c r="E27">
-        <v>0.14862049799999999</v>
+      <c r="E27" s="1">
+        <v>9.7158261589053704E-2</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -6067,8 +6389,8 @@
       <c r="D28" s="1">
         <v>2600</v>
       </c>
-      <c r="E28">
-        <v>8.9610869999999995E-2</v>
+      <c r="E28" s="1">
+        <v>2.0922639418624284E-2</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -6081,8 +6403,8 @@
       <c r="D29" s="1">
         <v>2700</v>
       </c>
-      <c r="E29">
-        <v>5.7204891000000001E-2</v>
+      <c r="E29" s="1">
+        <v>-2.2114510160882749E-2</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -6095,8 +6417,8 @@
       <c r="D30" s="1">
         <v>2800</v>
       </c>
-      <c r="E30">
-        <v>9.1054520999999999E-2</v>
+      <c r="E30" s="1">
+        <v>1.9712764614156653E-2</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -6109,8 +6431,8 @@
       <c r="D31" s="1">
         <v>2900</v>
       </c>
-      <c r="E31">
-        <v>0.104556169</v>
+      <c r="E31" s="1">
+        <v>4.1945216479001811E-2</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -6123,8 +6445,8 @@
       <c r="D32" s="1">
         <v>3000</v>
       </c>
-      <c r="E32">
-        <v>8.7525178999999995E-2</v>
+      <c r="E32" s="1">
+        <v>3.3694210278024113E-2</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -6137,8 +6459,8 @@
       <c r="D33" s="1">
         <v>3100</v>
       </c>
-      <c r="E33">
-        <v>0.117296661</v>
+      <c r="E33" s="1">
+        <v>5.5955172735295579E-2</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -6151,8 +6473,8 @@
       <c r="D34" s="1">
         <v>3200</v>
       </c>
-      <c r="E34">
-        <v>0.142539684</v>
+      <c r="E34" s="1">
+        <v>6.9089655223787919E-2</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -6165,8 +6487,8 @@
       <c r="D35" s="1">
         <v>3300</v>
       </c>
-      <c r="E35">
-        <v>0.18197132799999999</v>
+      <c r="E35" s="1">
+        <v>0.1148203541597372</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -6179,8 +6501,8 @@
       <c r="D36" s="1">
         <v>3400</v>
       </c>
-      <c r="E36">
-        <v>0.16968883200000001</v>
+      <c r="E36" s="1">
+        <v>0.12513710335917672</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -6193,8 +6515,8 @@
       <c r="D37" s="1">
         <v>3500</v>
       </c>
-      <c r="E37">
-        <v>0.12749660299999999</v>
+      <c r="E37" s="1">
+        <v>8.8977099749195571E-2</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -6207,8 +6529,8 @@
       <c r="D38" s="1">
         <v>3600</v>
       </c>
-      <c r="E38">
-        <v>0.175074481</v>
+      <c r="E38" s="1">
+        <v>0.14727031143162644</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -6221,8 +6543,8 @@
       <c r="D39" s="1">
         <v>3700</v>
       </c>
-      <c r="E39">
-        <v>0.20435120700000001</v>
+      <c r="E39" s="1">
+        <v>0.16787755126716181</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -6235,8 +6557,8 @@
       <c r="D40" s="1">
         <v>3800</v>
       </c>
-      <c r="E40">
-        <v>0.228766201</v>
+      <c r="E40" s="1">
+        <v>0.18719733479273856</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -6249,8 +6571,8 @@
       <c r="D41" s="1">
         <v>3900</v>
       </c>
-      <c r="E41">
-        <v>0.217287228</v>
+      <c r="E41" s="1">
+        <v>0.18077635924576552</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -6263,8 +6585,8 @@
       <c r="D42" s="1">
         <v>4000</v>
       </c>
-      <c r="E42">
-        <v>0.246483813</v>
+      <c r="E42" s="1">
+        <v>0.19885547185376062</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -6277,8 +6599,8 @@
       <c r="D43" s="1">
         <v>4100</v>
       </c>
-      <c r="E43">
-        <v>0.27022114400000002</v>
+      <c r="E43" s="1">
+        <v>0.20359854157627399</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -6291,8 +6613,8 @@
       <c r="D44" s="1">
         <v>4200</v>
       </c>
-      <c r="E44">
-        <v>0.21592087700000001</v>
+      <c r="E44" s="1">
+        <v>0.14736997962565884</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -6305,8 +6627,8 @@
       <c r="D45" s="1">
         <v>4300</v>
       </c>
-      <c r="E45">
-        <v>0.26157452399999997</v>
+      <c r="E45" s="1">
+        <v>0.1876502437022089</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -6319,8 +6641,8 @@
       <c r="D46" s="1">
         <v>4400</v>
       </c>
-      <c r="E46">
-        <v>0.22672214199999999</v>
+      <c r="E46" s="1">
+        <v>0.15272725740566051</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -6333,8 +6655,8 @@
       <c r="D47" s="1">
         <v>4500</v>
       </c>
-      <c r="E47">
-        <v>0.27574919399999998</v>
+      <c r="E47" s="1">
+        <v>0.20261146025607019</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -6347,8 +6669,8 @@
       <c r="D48" s="1">
         <v>4600</v>
       </c>
-      <c r="E48">
-        <v>0.24775323599999999</v>
+      <c r="E48" s="1">
+        <v>0.18386136488819729</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -6361,8 +6683,8 @@
       <c r="D49" s="1">
         <v>4700</v>
       </c>
-      <c r="E49">
-        <v>0.26697323899999997</v>
+      <c r="E49" s="1">
+        <v>0.20659891124372096</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -6375,8 +6697,8 @@
       <c r="D50" s="1">
         <v>4800</v>
       </c>
-      <c r="E50">
-        <v>0.27361138400000001</v>
+      <c r="E50" s="1">
+        <v>0.2132864783862769</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -6389,8 +6711,8 @@
       <c r="D51" s="1">
         <v>4900</v>
       </c>
-      <c r="E51">
-        <v>0.256346093</v>
+      <c r="E51" s="1">
+        <v>0.20139800724287701</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -6403,8 +6725,8 @@
       <c r="D52" s="1">
         <v>5000</v>
       </c>
-      <c r="E52">
-        <v>0.32114661100000003</v>
+      <c r="E52" s="1">
+        <v>0.25190524153494603</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -6417,8 +6739,8 @@
       <c r="D53" s="1">
         <v>5100</v>
       </c>
-      <c r="E53">
-        <v>0.30059471199999999</v>
+      <c r="E53" s="1">
+        <v>0.22338132215471568</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -6431,8 +6753,8 @@
       <c r="D54" s="1">
         <v>5200</v>
       </c>
-      <c r="E54">
-        <v>0.29630546099999999</v>
+      <c r="E54" s="1">
+        <v>0.22323570243367991</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -6445,8 +6767,8 @@
       <c r="D55" s="1">
         <v>5300</v>
       </c>
-      <c r="E55">
-        <v>0.23470464599999999</v>
+      <c r="E55" s="1">
+        <v>0.16255419451572498</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -6459,8 +6781,8 @@
       <c r="D56" s="1">
         <v>5400</v>
       </c>
-      <c r="E56">
-        <v>0.215194896</v>
+      <c r="E56" s="1">
+        <v>0.13736204500596796</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -6473,8 +6795,8 @@
       <c r="D57" s="1">
         <v>5500</v>
       </c>
-      <c r="E57">
-        <v>0.267510894</v>
+      <c r="E57" s="1">
+        <v>0.19710976381546597</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -6487,8 +6809,8 @@
       <c r="D58" s="1">
         <v>5600</v>
       </c>
-      <c r="E58">
-        <v>0.31471272900000002</v>
+      <c r="E58" s="1">
+        <v>0.24313609960772459</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -6501,8 +6823,8 @@
       <c r="D59" s="1">
         <v>5700</v>
       </c>
-      <c r="E59">
-        <v>0.308853512</v>
+      <c r="E59" s="1">
+        <v>0.24157947321222767</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -6515,8 +6837,8 @@
       <c r="D60" s="1">
         <v>5800</v>
       </c>
-      <c r="E60">
-        <v>0.30383971500000001</v>
+      <c r="E60" s="1">
+        <v>0.23330802894312319</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -6529,8 +6851,8 @@
       <c r="D61" s="1">
         <v>5900</v>
       </c>
-      <c r="E61">
-        <v>0.258460733</v>
+      <c r="E61" s="1">
+        <v>0.19361925337359903</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -6543,8 +6865,8 @@
       <c r="D62" s="1">
         <v>6000</v>
       </c>
-      <c r="E62">
-        <v>0.27057420999999998</v>
+      <c r="E62" s="1">
+        <v>0.20660153110407958</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -6557,8 +6879,8 @@
       <c r="D63" s="1">
         <v>6100</v>
       </c>
-      <c r="E63">
-        <v>0.25783917000000001</v>
+      <c r="E63" s="1">
+        <v>0.18793423767770492</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -6571,8 +6893,8 @@
       <c r="D64" s="1">
         <v>6200</v>
       </c>
-      <c r="E64">
-        <v>0.25265386299999998</v>
+      <c r="E64" s="1">
+        <v>0.18063302545484577</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -6585,8 +6907,8 @@
       <c r="D65" s="1">
         <v>6300</v>
       </c>
-      <c r="E65">
-        <v>0.28313060400000001</v>
+      <c r="E65" s="1">
+        <v>0.20258703646610371</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -6599,8 +6921,8 @@
       <c r="D66" s="1">
         <v>6400</v>
       </c>
-      <c r="E66">
-        <v>0.27894744100000002</v>
+      <c r="E66" s="1">
+        <v>0.20805929323373581</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -6613,8 +6935,8 @@
       <c r="D67" s="1">
         <v>6500</v>
       </c>
-      <c r="E67">
-        <v>0.26658382899999999</v>
+      <c r="E67" s="1">
+        <v>0.19629637971545905</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -6627,8 +6949,8 @@
       <c r="D68" s="1">
         <v>6600</v>
       </c>
-      <c r="E68">
-        <v>0.30386231600000002</v>
+      <c r="E68" s="1">
+        <v>0.22626574927363099</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -6641,8 +6963,8 @@
       <c r="D69" s="1">
         <v>6700</v>
       </c>
-      <c r="E69">
-        <v>0.32254247800000002</v>
+      <c r="E69" s="1">
+        <v>0.24721447692553894</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -6655,8 +6977,8 @@
       <c r="D70" s="1">
         <v>6800</v>
       </c>
-      <c r="E70">
-        <v>0.31528128799999999</v>
+      <c r="E70" s="1">
+        <v>0.23976511092425029</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -6669,8 +6991,8 @@
       <c r="D71" s="1">
         <v>6900</v>
       </c>
-      <c r="E71">
-        <v>0.31230177199999998</v>
+      <c r="E71" s="1">
+        <v>0.24048194204336401</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -6683,8 +7005,8 @@
       <c r="D72" s="1">
         <v>7000</v>
       </c>
-      <c r="E72">
-        <v>0.223947269</v>
+      <c r="E72" s="1">
+        <v>0.16457724669811943</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -6697,8 +7019,8 @@
       <c r="D73" s="1">
         <v>7100</v>
       </c>
-      <c r="E73">
-        <v>0.170377004</v>
+      <c r="E73" s="1">
+        <v>0.11855312681679922</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -6711,8 +7033,8 @@
       <c r="D74" s="1">
         <v>7200</v>
       </c>
-      <c r="E74">
-        <v>0.205141931</v>
+      <c r="E74" s="1">
+        <v>0.16092739812367218</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -6725,8 +7047,8 @@
       <c r="D75" s="1">
         <v>7300</v>
       </c>
-      <c r="E75">
-        <v>0.25107782699999998</v>
+      <c r="E75" s="1">
+        <v>0.18683217840781896</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -6739,8 +7061,8 @@
       <c r="D76" s="1">
         <v>7400</v>
       </c>
-      <c r="E76">
-        <v>0.258500226</v>
+      <c r="E76" s="1">
+        <v>0.19322533864019409</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -6753,8 +7075,8 @@
       <c r="D77" s="1">
         <v>7500</v>
       </c>
-      <c r="E77">
-        <v>0.26745157400000003</v>
+      <c r="E77" s="1">
+        <v>0.23002761261162277</v>
       </c>
     </row>
     <row r="78" spans="1:5">
@@ -6767,8 +7089,8 @@
       <c r="D78" s="1">
         <v>7600</v>
       </c>
-      <c r="E78">
-        <v>0.24160916099999999</v>
+      <c r="E78" s="1">
+        <v>0.18988937647851922</v>
       </c>
     </row>
     <row r="79" spans="1:5">
@@ -6781,8 +7103,8 @@
       <c r="D79" s="1">
         <v>7700</v>
       </c>
-      <c r="E79">
-        <v>0.27906001400000002</v>
+      <c r="E79" s="1">
+        <v>0.22113565600988977</v>
       </c>
     </row>
     <row r="80" spans="1:5">
@@ -6795,8 +7117,8 @@
       <c r="D80" s="1">
         <v>7800</v>
       </c>
-      <c r="E80">
-        <v>0.28378035600000001</v>
+      <c r="E80" s="1">
+        <v>0.2434367205836194</v>
       </c>
     </row>
     <row r="81" spans="1:5">
@@ -6809,8 +7131,8 @@
       <c r="D81" s="1">
         <v>7900</v>
       </c>
-      <c r="E81">
-        <v>0.27175190599999999</v>
+      <c r="E81" s="1">
+        <v>0.23948271514158578</v>
       </c>
     </row>
     <row r="82" spans="1:5">
@@ -6823,8 +7145,8 @@
       <c r="D82" s="1">
         <v>8000</v>
       </c>
-      <c r="E82">
-        <v>0.27085888000000002</v>
+      <c r="E82" s="1">
+        <v>0.24923485332180972</v>
       </c>
     </row>
     <row r="83" spans="1:5">
@@ -6837,8 +7159,8 @@
       <c r="D83" s="1">
         <v>8100</v>
       </c>
-      <c r="E83">
-        <v>0.22257147799999999</v>
+      <c r="E83" s="1">
+        <v>0.19437397977616624</v>
       </c>
     </row>
     <row r="84" spans="1:5">
@@ -6851,8 +7173,8 @@
       <c r="D84" s="1">
         <v>8200</v>
       </c>
-      <c r="E84">
-        <v>0.21589604100000001</v>
+      <c r="E84" s="1">
+        <v>0.19036297266596489</v>
       </c>
     </row>
     <row r="85" spans="1:5">
@@ -6865,8 +7187,8 @@
       <c r="D85" s="1">
         <v>8300</v>
       </c>
-      <c r="E85">
-        <v>0.21586448599999999</v>
+      <c r="E85" s="1">
+        <v>0.19971156938352039</v>
       </c>
     </row>
     <row r="86" spans="1:5">
@@ -6879,8 +7201,8 @@
       <c r="D86" s="1">
         <v>8400</v>
       </c>
-      <c r="E86">
-        <v>0.28346897900000001</v>
+      <c r="E86" s="1">
+        <v>0.27570443226886587</v>
       </c>
     </row>
     <row r="87" spans="1:5">
@@ -6893,8 +7215,8 @@
       <c r="D87" s="1">
         <v>8500</v>
       </c>
-      <c r="E87">
-        <v>0.27627039399999997</v>
+      <c r="E87" s="1">
+        <v>0.25682938869546568</v>
       </c>
     </row>
     <row r="88" spans="1:5">
@@ -6907,8 +7229,8 @@
       <c r="D88" s="1">
         <v>8600</v>
       </c>
-      <c r="E88">
-        <v>0.282046941</v>
+      <c r="E88" s="1">
+        <v>0.24611808991667933</v>
       </c>
     </row>
     <row r="89" spans="1:5">
@@ -6921,8 +7243,8 @@
       <c r="D89" s="1">
         <v>8700</v>
       </c>
-      <c r="E89">
-        <v>0.24576458400000001</v>
+      <c r="E89" s="1">
+        <v>0.22076365583652696</v>
       </c>
     </row>
     <row r="90" spans="1:5">
@@ -6935,8 +7257,8 @@
       <c r="D90" s="1">
         <v>8800</v>
       </c>
-      <c r="E90">
-        <v>0.24806207599999999</v>
+      <c r="E90" s="1">
+        <v>0.23130507503126307</v>
       </c>
     </row>
     <row r="91" spans="1:5">
@@ -6949,8 +7271,8 @@
       <c r="D91" s="1">
         <v>8900</v>
       </c>
-      <c r="E91">
-        <v>0.25363233299999999</v>
+      <c r="E91" s="1">
+        <v>0.25195065548145118</v>
       </c>
     </row>
     <row r="92" spans="1:5">
@@ -6963,8 +7285,8 @@
       <c r="D92" s="1">
         <v>9000</v>
       </c>
-      <c r="E92">
-        <v>0.28619363799999997</v>
+      <c r="E92" s="1">
+        <v>0.28609653737076535</v>
       </c>
     </row>
     <row r="93" spans="1:5">
@@ -6977,8 +7299,8 @@
       <c r="D93" s="1">
         <v>9100</v>
       </c>
-      <c r="E93">
-        <v>0.29525098799999999</v>
+      <c r="E93" s="1">
+        <v>0.29198202895909431</v>
       </c>
     </row>
     <row r="94" spans="1:5">
@@ -6991,8 +7313,8 @@
       <c r="D94" s="1">
         <v>9200</v>
       </c>
-      <c r="E94">
-        <v>0.22347507899999999</v>
+      <c r="E94" s="1">
+        <v>0.22116994015319719</v>
       </c>
     </row>
     <row r="95" spans="1:5">
@@ -7005,8 +7327,8 @@
       <c r="D95" s="1">
         <v>9300</v>
       </c>
-      <c r="E95">
-        <v>0.22449808900000001</v>
+      <c r="E95" s="1">
+        <v>0.22967890803303184</v>
       </c>
     </row>
     <row r="96" spans="1:5">
@@ -7019,8 +7341,8 @@
       <c r="D96" s="1">
         <v>9400</v>
       </c>
-      <c r="E96">
-        <v>0.25909220700000002</v>
+      <c r="E96" s="1">
+        <v>0.26736208925854898</v>
       </c>
     </row>
     <row r="97" spans="1:5">
@@ -7033,8 +7355,8 @@
       <c r="D97" s="1">
         <v>9500</v>
       </c>
-      <c r="E97">
-        <v>0.20826581599999999</v>
+      <c r="E97" s="1">
+        <v>0.22103672060966092</v>
       </c>
     </row>
     <row r="98" spans="1:5">
@@ -7047,8 +7369,8 @@
       <c r="D98" s="1">
         <v>9600</v>
       </c>
-      <c r="E98">
-        <v>0.19719384000000001</v>
+      <c r="E98" s="1">
+        <v>0.18806965760282687</v>
       </c>
     </row>
     <row r="99" spans="1:5">
@@ -7061,8 +7383,8 @@
       <c r="D99" s="1">
         <v>9700</v>
       </c>
-      <c r="E99">
-        <v>0.18750487099999999</v>
+      <c r="E99" s="1">
+        <v>0.17363432756364339</v>
       </c>
     </row>
     <row r="100" spans="1:5">
@@ -7075,8 +7397,8 @@
       <c r="D100" s="1">
         <v>9800</v>
       </c>
-      <c r="E100">
-        <v>0.204096904</v>
+      <c r="E100" s="1">
+        <v>0.17882618238502249</v>
       </c>
     </row>
     <row r="101" spans="1:5">
@@ -7089,8 +7411,8 @@
       <c r="D101" s="1">
         <v>9900</v>
       </c>
-      <c r="E101">
-        <v>-2.9125153000000001E-2</v>
+      <c r="E101" s="1">
+        <v>0.12510962708088191</v>
       </c>
     </row>
     <row r="102" spans="1:5">
@@ -7103,8 +7425,8 @@
       <c r="D102" s="1">
         <v>10000</v>
       </c>
-      <c r="E102">
-        <v>0</v>
+      <c r="E102" s="1">
+        <v>0.12933337715122262</v>
       </c>
     </row>
     <row r="103" spans="1:5">
@@ -7117,8 +7439,8 @@
       <c r="D103" s="1">
         <v>10100</v>
       </c>
-      <c r="E103">
-        <v>2.3759606999999999E-2</v>
+      <c r="E103" s="1">
+        <v>0.10056369360087036</v>
       </c>
     </row>
     <row r="104" spans="1:5">
@@ -7131,8 +7453,8 @@
       <c r="D104" s="1">
         <v>10200</v>
       </c>
-      <c r="E104">
-        <v>5.0911675000000003E-2</v>
+      <c r="E104" s="1">
+        <v>7.5752458862629421E-2</v>
       </c>
     </row>
     <row r="105" spans="1:5">
@@ -7145,8 +7467,8 @@
       <c r="D105" s="1">
         <v>10300</v>
       </c>
-      <c r="E105">
-        <v>9.0070092000000004E-2</v>
+      <c r="E105" s="1">
+        <v>6.5426164319699956E-2</v>
       </c>
     </row>
     <row r="106" spans="1:5">
@@ -7159,8 +7481,8 @@
       <c r="D106" s="1">
         <v>10400</v>
       </c>
-      <c r="E106">
-        <v>6.0512638000000001E-2</v>
+      <c r="E106" s="1">
+        <v>3.8620877965533602E-2</v>
       </c>
     </row>
     <row r="107" spans="1:5">
@@ -7173,8 +7495,8 @@
       <c r="D107" s="1">
         <v>10500</v>
       </c>
-      <c r="E107">
-        <v>4.3391469000000002E-2</v>
+      <c r="E107" s="1">
+        <v>1.5125400353437663E-2</v>
       </c>
     </row>
     <row r="108" spans="1:5">
@@ -7187,8 +7509,8 @@
       <c r="D108" s="1">
         <v>10600</v>
       </c>
-      <c r="E108">
-        <v>-3.5198820999999998E-2</v>
+      <c r="E108" s="1">
+        <v>-3.5024138146568948E-2</v>
       </c>
     </row>
     <row r="109" spans="1:5">
@@ -7201,8 +7523,8 @@
       <c r="D109" s="1">
         <v>10700</v>
       </c>
-      <c r="E109">
-        <v>-7.8726807999999995E-2</v>
+      <c r="E109" s="1">
+        <v>-7.6863235834202431E-2</v>
       </c>
     </row>
     <row r="110" spans="1:5">
@@ -7215,8 +7537,8 @@
       <c r="D110" s="1">
         <v>10800</v>
       </c>
-      <c r="E110">
-        <v>-0.12481771999999999</v>
+      <c r="E110" s="1">
+        <v>-0.12574334691006422</v>
       </c>
     </row>
     <row r="111" spans="1:5">
@@ -7229,8 +7551,8 @@
       <c r="D111" s="1">
         <v>10900</v>
       </c>
-      <c r="E111">
-        <v>-0.18372883700000001</v>
+      <c r="E111" s="1">
+        <v>-0.15799303758569944</v>
       </c>
     </row>
     <row r="112" spans="1:5">
@@ -7243,8 +7565,8 @@
       <c r="D112" s="1">
         <v>11000</v>
       </c>
-      <c r="E112">
-        <v>-0.25016782500000001</v>
+      <c r="E112" s="1">
+        <v>-0.22676835733935635</v>
       </c>
     </row>
     <row r="113" spans="1:5">
@@ -7257,8 +7579,8 @@
       <c r="D113" s="1">
         <v>11100</v>
       </c>
-      <c r="E113">
-        <v>-0.29195259299999998</v>
+      <c r="E113" s="1">
+        <v>-0.28296432884032774</v>
       </c>
     </row>
     <row r="114" spans="1:5">
@@ -7271,8 +7593,8 @@
       <c r="D114" s="1">
         <v>11200</v>
       </c>
-      <c r="E114">
-        <v>-0.225866714</v>
+      <c r="E114" s="1">
+        <v>-0.24815086589026003</v>
       </c>
     </row>
     <row r="115" spans="1:5">
@@ -7285,8 +7607,8 @@
       <c r="D115" s="1">
         <v>11300</v>
       </c>
-      <c r="E115">
-        <v>-0.22203273700000001</v>
+      <c r="E115" s="1">
+        <v>-0.25865987752984415</v>
       </c>
     </row>
     <row r="116" spans="1:5">
@@ -7299,8 +7621,8 @@
       <c r="D116" s="1">
         <v>11400</v>
       </c>
-      <c r="E116">
-        <v>-0.31535819700000001</v>
+      <c r="E116" s="1">
+        <v>-0.34199796123534282</v>
       </c>
     </row>
     <row r="117" spans="1:5">
@@ -7313,8 +7635,8 @@
       <c r="D117" s="1">
         <v>11500</v>
       </c>
-      <c r="E117">
-        <v>-0.38825298699999999</v>
+      <c r="E117" s="1">
+        <v>-0.39874931072622177</v>
       </c>
     </row>
     <row r="118" spans="1:5">
@@ -7327,8 +7649,8 @@
       <c r="D118" s="1">
         <v>11600</v>
       </c>
-      <c r="E118">
-        <v>-0.45662408399999999</v>
+      <c r="E118" s="1">
+        <v>-0.46252483452057652</v>
       </c>
     </row>
     <row r="119" spans="1:5">
@@ -7341,8 +7663,8 @@
       <c r="D119" s="1">
         <v>11700</v>
       </c>
-      <c r="E119">
-        <v>-0.56913045500000004</v>
+      <c r="E119" s="1">
+        <v>-0.5876167574811324</v>
       </c>
     </row>
     <row r="120" spans="1:5">
@@ -7355,8 +7677,8 @@
       <c r="D120" s="1">
         <v>11800</v>
       </c>
-      <c r="E120">
-        <v>-0.58778358399999997</v>
+      <c r="E120" s="1">
+        <v>-0.60897672787578139</v>
       </c>
     </row>
     <row r="121" spans="1:5">
@@ -7369,8 +7691,8 @@
       <c r="D121" s="1">
         <v>11900</v>
       </c>
-      <c r="E121">
-        <v>-0.79948877900000004</v>
+      <c r="E121" s="1">
+        <v>-0.82252586268391081</v>
       </c>
     </row>
     <row r="122" spans="1:5">
@@ -7383,8 +7705,8 @@
       <c r="D122" s="1">
         <v>12000</v>
       </c>
-      <c r="E122">
-        <v>-0.76870639900000004</v>
+      <c r="E122" s="1">
+        <v>-0.79058683278166975</v>
       </c>
     </row>
     <row r="123" spans="1:5">
@@ -7397,8 +7719,8 @@
       <c r="D123" s="1">
         <v>12100</v>
       </c>
-      <c r="E123">
-        <v>-0.82333512900000005</v>
+      <c r="E123" s="1">
+        <v>-0.85234494350606449</v>
       </c>
     </row>
     <row r="124" spans="1:5">
@@ -7411,8 +7733,8 @@
       <c r="D124" s="1">
         <v>12200</v>
       </c>
-      <c r="E124">
-        <v>-0.83027974000000004</v>
+      <c r="E124" s="1">
+        <v>-0.8572591146797619</v>
       </c>
     </row>
     <row r="125" spans="1:5">
@@ -7425,8 +7747,8 @@
       <c r="D125" s="1">
         <v>12300</v>
       </c>
-      <c r="E125">
-        <v>-0.85723006700000004</v>
+      <c r="E125" s="1">
+        <v>-0.8773521123410758</v>
       </c>
     </row>
     <row r="126" spans="1:5">
@@ -7439,8 +7761,8 @@
       <c r="D126" s="1">
         <v>12400</v>
       </c>
-      <c r="E126">
-        <v>-0.88322422700000003</v>
+      <c r="E126" s="1">
+        <v>-0.91120905592941026</v>
       </c>
     </row>
     <row r="127" spans="1:5">
@@ -7453,8 +7775,8 @@
       <c r="D127" s="1">
         <v>12500</v>
       </c>
-      <c r="E127">
-        <v>-0.96734451300000002</v>
+      <c r="E127" s="1">
+        <v>-1.018499390919084</v>
       </c>
     </row>
     <row r="128" spans="1:5">
@@ -7467,8 +7789,8 @@
       <c r="D128" s="1">
         <v>12600</v>
       </c>
-      <c r="E128">
-        <v>-0.98064812499999998</v>
+      <c r="E128" s="1">
+        <v>-1.0226339176803259</v>
       </c>
     </row>
     <row r="129" spans="1:5">
@@ -7481,8 +7803,8 @@
       <c r="D129" s="1">
         <v>12700</v>
       </c>
-      <c r="E129">
-        <v>-1.061676877</v>
+      <c r="E129" s="1">
+        <v>-1.1064886579649693</v>
       </c>
     </row>
     <row r="130" spans="1:5">
@@ -7495,8 +7817,8 @@
       <c r="D130" s="1">
         <v>12800</v>
       </c>
-      <c r="E130">
-        <v>-0.98742413799999995</v>
+      <c r="E130" s="1">
+        <v>-1.0539649868523402</v>
       </c>
     </row>
     <row r="131" spans="1:5">
@@ -7509,8 +7831,8 @@
       <c r="D131" s="1">
         <v>12900</v>
       </c>
-      <c r="E131">
-        <v>-0.91221629100000001</v>
+      <c r="E131" s="1">
+        <v>-0.98863163508476348</v>
       </c>
     </row>
     <row r="132" spans="1:5">
@@ -7523,8 +7845,8 @@
       <c r="D132" s="1">
         <v>13000</v>
       </c>
-      <c r="E132">
-        <v>-0.90270874800000001</v>
+      <c r="E132" s="1">
+        <v>-0.99227574766587467</v>
       </c>
     </row>
     <row r="133" spans="1:5">
@@ -7537,8 +7859,8 @@
       <c r="D133" s="1">
         <v>13100</v>
       </c>
-      <c r="E133">
-        <v>-0.87335577399999997</v>
+      <c r="E133" s="1">
+        <v>-0.96712362756521764</v>
       </c>
     </row>
     <row r="134" spans="1:5">
@@ -7551,8 +7873,8 @@
       <c r="D134" s="1">
         <v>13200</v>
       </c>
-      <c r="E134">
-        <v>-0.93076401499999994</v>
+      <c r="E134" s="1">
+        <v>-0.88583363310937258</v>
       </c>
     </row>
     <row r="135" spans="1:5">
@@ -7565,8 +7887,8 @@
       <c r="D135" s="1">
         <v>13300</v>
       </c>
-      <c r="E135">
-        <v>-0.86136928999999995</v>
+      <c r="E135" s="1">
+        <v>-0.81294404789809316</v>
       </c>
     </row>
     <row r="136" spans="1:5">
@@ -7579,8 +7901,8 @@
       <c r="D136" s="1">
         <v>13400</v>
       </c>
-      <c r="E136">
-        <v>-0.84682084000000002</v>
+      <c r="E136" s="1">
+        <v>-0.80010830710620939</v>
       </c>
     </row>
     <row r="137" spans="1:5">
@@ -7593,8 +7915,8 @@
       <c r="D137" s="1">
         <v>13500</v>
       </c>
-      <c r="E137">
-        <v>-0.82777918699999997</v>
+      <c r="E137" s="1">
+        <v>-0.76522394456915321</v>
       </c>
     </row>
     <row r="138" spans="1:5">
@@ -7607,8 +7929,8 @@
       <c r="D138" s="1">
         <v>13600</v>
       </c>
-      <c r="E138">
-        <v>-0.92327876600000003</v>
+      <c r="E138" s="1">
+        <v>-0.8434293423505187</v>
       </c>
     </row>
     <row r="139" spans="1:5">
@@ -7621,8 +7943,8 @@
       <c r="D139" s="1">
         <v>13700</v>
       </c>
-      <c r="E139">
-        <v>-0.87699828599999996</v>
+      <c r="E139" s="1">
+        <v>-0.79597509981590953</v>
       </c>
     </row>
     <row r="140" spans="1:5">
@@ -7635,8 +7957,8 @@
       <c r="D140" s="1">
         <v>13800</v>
       </c>
-      <c r="E140">
-        <v>-0.94437154000000001</v>
+      <c r="E140" s="1">
+        <v>-0.85570005191032461</v>
       </c>
     </row>
     <row r="141" spans="1:5">
@@ -7649,8 +7971,8 @@
       <c r="D141" s="1">
         <v>13900</v>
       </c>
-      <c r="E141">
-        <v>-0.93833785000000003</v>
+      <c r="E141" s="1">
+        <v>-0.83564885587837268</v>
       </c>
     </row>
     <row r="142" spans="1:5">
@@ -7663,8 +7985,8 @@
       <c r="D142" s="1">
         <v>14000</v>
       </c>
-      <c r="E142">
-        <v>-1.3007011020000001</v>
+      <c r="E142" s="1">
+        <v>-0.91691469386658775</v>
       </c>
     </row>
     <row r="143" spans="1:5">
@@ -7677,8 +7999,8 @@
       <c r="D143" s="1">
         <v>14100</v>
       </c>
-      <c r="E143">
-        <v>-0.94610867499999995</v>
+      <c r="E143" s="1">
+        <v>-0.87366421319797305</v>
       </c>
     </row>
     <row r="144" spans="1:5">
@@ -7691,8 +8013,8 @@
       <c r="D144" s="1">
         <v>14200</v>
       </c>
-      <c r="E144">
-        <v>-0.94728833099999998</v>
+      <c r="E144" s="1">
+        <v>-0.87976792299088058</v>
       </c>
     </row>
     <row r="145" spans="1:5">
@@ -7705,8 +8027,8 @@
       <c r="D145" s="1">
         <v>14300</v>
       </c>
-      <c r="E145">
-        <v>-0.91342091400000003</v>
+      <c r="E145" s="1">
+        <v>-0.87244262915500848</v>
       </c>
     </row>
     <row r="146" spans="1:5">
@@ -7719,8 +8041,8 @@
       <c r="D146" s="1">
         <v>14400</v>
       </c>
-      <c r="E146">
-        <v>-0.97402942800000003</v>
+      <c r="E146" s="1">
+        <v>-0.92002046780214397</v>
       </c>
     </row>
     <row r="147" spans="1:5">
@@ -7733,8 +8055,8 @@
       <c r="D147" s="1">
         <v>14500</v>
       </c>
-      <c r="E147">
-        <v>-1.0410521850000001</v>
+      <c r="E147" s="1">
+        <v>-0.97023135985135767</v>
       </c>
     </row>
     <row r="148" spans="1:5">
@@ -7747,8 +8069,8 @@
       <c r="D148" s="1">
         <v>14600</v>
       </c>
-      <c r="E148">
-        <v>-1.206267827</v>
+      <c r="E148" s="1">
+        <v>-1.1755914032078951</v>
       </c>
     </row>
     <row r="149" spans="1:5">
@@ -7761,8 +8083,8 @@
       <c r="D149" s="1">
         <v>14700</v>
       </c>
-      <c r="E149">
-        <v>-1.2015462450000001</v>
+      <c r="E149" s="1">
+        <v>-1.2643689055940404</v>
       </c>
     </row>
     <row r="150" spans="1:5">
@@ -7775,8 +8097,8 @@
       <c r="D150" s="1">
         <v>14800</v>
       </c>
-      <c r="E150">
-        <v>-1.284033097</v>
+      <c r="E150" s="1">
+        <v>-1.4206627514338805</v>
       </c>
     </row>
     <row r="151" spans="1:5">
@@ -7789,8 +8111,8 @@
       <c r="D151" s="1">
         <v>14900</v>
       </c>
-      <c r="E151">
-        <v>-1.2521630939999999</v>
+      <c r="E151" s="1">
+        <v>-1.4138075916008361</v>
       </c>
     </row>
     <row r="152" spans="1:5">
@@ -7803,8 +8125,8 @@
       <c r="D152" s="1">
         <v>15000</v>
       </c>
-      <c r="E152">
-        <v>-1.302602268</v>
+      <c r="E152" s="1">
+        <v>-1.4878424839848379</v>
       </c>
     </row>
     <row r="153" spans="1:5">
@@ -7817,8 +8139,8 @@
       <c r="D153" s="1">
         <v>15100</v>
       </c>
-      <c r="E153">
-        <v>-1.2570093929999999</v>
+      <c r="E153" s="1">
+        <v>-1.454136372191877</v>
       </c>
     </row>
     <row r="154" spans="1:5">
@@ -7831,8 +8153,8 @@
       <c r="D154" s="1">
         <v>15200</v>
       </c>
-      <c r="E154">
-        <v>-1.2237617190000001</v>
+      <c r="E154" s="1">
+        <v>-1.4314091201847852</v>
       </c>
     </row>
     <row r="155" spans="1:5">
@@ -7845,8 +8167,8 @@
       <c r="D155" s="1">
         <v>15300</v>
       </c>
-      <c r="E155">
-        <v>-1.271587595</v>
+      <c r="E155" s="1">
+        <v>-1.4754973359382142</v>
       </c>
     </row>
     <row r="156" spans="1:5">
@@ -7859,8 +8181,8 @@
       <c r="D156" s="1">
         <v>15400</v>
       </c>
-      <c r="E156">
-        <v>-1.2690092369999999</v>
+      <c r="E156" s="1">
+        <v>-1.463420214609263</v>
       </c>
     </row>
     <row r="157" spans="1:5">
@@ -7873,8 +8195,8 @@
       <c r="D157" s="1">
         <v>15500</v>
       </c>
-      <c r="E157">
-        <v>-1.3103483419999999</v>
+      <c r="E157" s="1">
+        <v>-1.4946779640442149</v>
       </c>
     </row>
     <row r="158" spans="1:5">
@@ -7887,8 +8209,8 @@
       <c r="D158" s="1">
         <v>15600</v>
       </c>
-      <c r="E158">
-        <v>-1.3674054579999999</v>
+      <c r="E158" s="1">
+        <v>-1.5581439133392805</v>
       </c>
     </row>
     <row r="159" spans="1:5">
@@ -7901,8 +8223,8 @@
       <c r="D159" s="1">
         <v>15700</v>
       </c>
-      <c r="E159">
-        <v>-1.401995407</v>
+      <c r="E159" s="1">
+        <v>-1.6104734714535354</v>
       </c>
     </row>
     <row r="160" spans="1:5">
@@ -7915,8 +8237,8 @@
       <c r="D160" s="1">
         <v>15800</v>
       </c>
-      <c r="E160">
-        <v>-1.379300706</v>
+      <c r="E160" s="1">
+        <v>-1.5781692867191377</v>
       </c>
     </row>
     <row r="161" spans="1:5">
@@ -7929,8 +8251,8 @@
       <c r="D161" s="1">
         <v>15900</v>
       </c>
-      <c r="E161">
-        <v>-1.700488709</v>
+      <c r="E161" s="1">
+        <v>-1.5988792422296054</v>
       </c>
     </row>
     <row r="162" spans="1:5">
@@ -7943,8 +8265,8 @@
       <c r="D162" s="1">
         <v>16000</v>
       </c>
-      <c r="E162">
-        <v>-1.423438099</v>
+      <c r="E162" s="1">
+        <v>-1.5960183215757069</v>
       </c>
     </row>
     <row r="163" spans="1:5">
@@ -7957,8 +8279,8 @@
       <c r="D163" s="1">
         <v>16100</v>
       </c>
-      <c r="E163">
-        <v>-1.4550768190000001</v>
+      <c r="E163" s="1">
+        <v>-1.6567633085422879</v>
       </c>
     </row>
     <row r="164" spans="1:5">
@@ -7971,8 +8293,8 @@
       <c r="D164" s="1">
         <v>16200</v>
       </c>
-      <c r="E164">
-        <v>-1.480595645</v>
+      <c r="E164" s="1">
+        <v>-1.71640997899725</v>
       </c>
     </row>
     <row r="165" spans="1:5">
@@ -7985,8 +8307,8 @@
       <c r="D165" s="1">
         <v>16300</v>
       </c>
-      <c r="E165">
-        <v>-1.5838011700000001</v>
+      <c r="E165" s="1">
+        <v>-1.8616064749537493</v>
       </c>
     </row>
     <row r="166" spans="1:5">
@@ -7999,8 +8321,8 @@
       <c r="D166" s="1">
         <v>16400</v>
       </c>
-      <c r="E166">
-        <v>-1.567272558</v>
+      <c r="E166" s="1">
+        <v>-1.8519509114590746</v>
       </c>
     </row>
     <row r="167" spans="1:5">
@@ -8013,8 +8335,8 @@
       <c r="D167" s="1">
         <v>16500</v>
       </c>
-      <c r="E167">
-        <v>-1.6672244979999999</v>
+      <c r="E167" s="1">
+        <v>-1.7995684211164999</v>
       </c>
     </row>
     <row r="168" spans="1:5">
@@ -8027,8 +8349,8 @@
       <c r="D168" s="1">
         <v>16600</v>
       </c>
-      <c r="E168">
-        <v>-1.5381541949999999</v>
+      <c r="E168" s="1">
+        <v>-1.8361612032877725</v>
       </c>
     </row>
     <row r="169" spans="1:5">
@@ -8041,8 +8363,8 @@
       <c r="D169" s="1">
         <v>16700</v>
       </c>
-      <c r="E169">
-        <v>-1.5707644270000001</v>
+      <c r="E169" s="1">
+        <v>-1.8915606336569404</v>
       </c>
     </row>
     <row r="170" spans="1:5">
@@ -8055,8 +8377,8 @@
       <c r="D170" s="1">
         <v>16800</v>
       </c>
-      <c r="E170">
-        <v>-1.5990655380000001</v>
+      <c r="E170" s="1">
+        <v>-1.9264426887544228</v>
       </c>
     </row>
     <row r="171" spans="1:5">
@@ -8069,8 +8391,8 @@
       <c r="D171" s="1">
         <v>16900</v>
       </c>
-      <c r="E171">
-        <v>-1.6742530710000001</v>
+      <c r="E171" s="1">
+        <v>-2.0209575478774098</v>
       </c>
     </row>
     <row r="172" spans="1:5">
@@ -8083,8 +8405,8 @@
       <c r="D172" s="1">
         <v>17000</v>
       </c>
-      <c r="E172">
-        <v>-1.6763989859999999</v>
+      <c r="E172" s="1">
+        <v>-2.0267952868329173</v>
       </c>
     </row>
     <row r="173" spans="1:5">
@@ -8097,8 +8419,8 @@
       <c r="D173" s="1">
         <v>17100</v>
       </c>
-      <c r="E173">
-        <v>-1.7079201900000001</v>
+      <c r="E173" s="1">
+        <v>-2.0579097122065653</v>
       </c>
     </row>
     <row r="174" spans="1:5">
@@ -8111,8 +8433,8 @@
       <c r="D174" s="1">
         <v>17200</v>
       </c>
-      <c r="E174">
-        <v>-1.6680720550000001</v>
+      <c r="E174" s="1">
+        <v>-2.0255968615538635</v>
       </c>
     </row>
     <row r="175" spans="1:5">
@@ -8125,8 +8447,8 @@
       <c r="D175" s="1">
         <v>17300</v>
       </c>
-      <c r="E175">
-        <v>-1.7242239939999999</v>
+      <c r="E175" s="1">
+        <v>-2.0927958699745064</v>
       </c>
     </row>
     <row r="176" spans="1:5">
@@ -8139,8 +8461,8 @@
       <c r="D176" s="1">
         <v>17400</v>
       </c>
-      <c r="E176">
-        <v>-1.8129812839999999</v>
+      <c r="E176" s="1">
+        <v>-2.185983369667329</v>
       </c>
     </row>
     <row r="177" spans="1:5">
@@ -8153,8 +8475,8 @@
       <c r="D177" s="1">
         <v>17500</v>
       </c>
-      <c r="E177">
-        <v>-1.7752069239999999</v>
+      <c r="E177" s="1">
+        <v>-2.1552051506212431</v>
       </c>
     </row>
     <row r="178" spans="1:5">
@@ -8167,8 +8489,8 @@
       <c r="D178" s="1">
         <v>17600</v>
       </c>
-      <c r="E178">
-        <v>-1.74434526</v>
+      <c r="E178" s="1">
+        <v>-2.1193153211911016</v>
       </c>
     </row>
     <row r="179" spans="1:5">
@@ -8181,8 +8503,8 @@
       <c r="D179" s="1">
         <v>17700</v>
       </c>
-      <c r="E179">
-        <v>-1.716398568</v>
+      <c r="E179" s="1">
+        <v>-2.0863188999450166</v>
       </c>
     </row>
     <row r="180" spans="1:5">
@@ -8195,8 +8517,8 @@
       <c r="D180" s="1">
         <v>17800</v>
       </c>
-      <c r="E180">
-        <v>-1.6646657840000001</v>
+      <c r="E180" s="1">
+        <v>-2.0419141630991726</v>
       </c>
     </row>
     <row r="181" spans="1:5">
@@ -8209,8 +8531,8 @@
       <c r="D181" s="1">
         <v>17900</v>
       </c>
-      <c r="E181">
-        <v>-1.6422891049999999</v>
+      <c r="E181" s="1">
+        <v>-2.0148677997810611</v>
       </c>
     </row>
     <row r="182" spans="1:5">
@@ -8223,8 +8545,8 @@
       <c r="D182" s="1">
         <v>18000</v>
       </c>
-      <c r="E182">
-        <v>-1.6323192740000001</v>
+      <c r="E182" s="1">
+        <v>-1.9673093827507704</v>
       </c>
     </row>
     <row r="183" spans="1:5">
@@ -8237,8 +8559,8 @@
       <c r="D183" s="1">
         <v>18100</v>
       </c>
-      <c r="E183">
-        <v>-1.6503459170000001</v>
+      <c r="E183" s="1">
+        <v>-2.0156927729603757</v>
       </c>
     </row>
     <row r="184" spans="1:5">
@@ -8251,8 +8573,8 @@
       <c r="D184" s="1">
         <v>18200</v>
       </c>
-      <c r="E184">
-        <v>-1.6928924059999999</v>
+      <c r="E184" s="1">
+        <v>-2.0738363948542693</v>
       </c>
     </row>
     <row r="185" spans="1:5">
@@ -8265,8 +8587,8 @@
       <c r="D185" s="1">
         <v>18300</v>
       </c>
-      <c r="E185">
-        <v>-1.756367791</v>
+      <c r="E185" s="1">
+        <v>-2.1361766678271445</v>
       </c>
     </row>
     <row r="186" spans="1:5">
@@ -8279,8 +8601,8 @@
       <c r="D186" s="1">
         <v>18400</v>
       </c>
-      <c r="E186">
-        <v>-1.7227741729999999</v>
+      <c r="E186" s="1">
+        <v>-2.1123398098048836</v>
       </c>
     </row>
     <row r="187" spans="1:5">
@@ -8293,8 +8615,8 @@
       <c r="D187" s="1">
         <v>18500</v>
       </c>
-      <c r="E187">
-        <v>-1.80027881</v>
+      <c r="E187" s="1">
+        <v>-2.159842870221643</v>
       </c>
     </row>
     <row r="188" spans="1:5">
@@ -8307,8 +8629,8 @@
       <c r="D188" s="1">
         <v>18600</v>
       </c>
-      <c r="E188">
-        <v>-1.7706314569999999</v>
+      <c r="E188" s="1">
+        <v>-2.169657371132574</v>
       </c>
     </row>
     <row r="189" spans="1:5">
@@ -8321,8 +8643,8 @@
       <c r="D189" s="1">
         <v>18700</v>
       </c>
-      <c r="E189">
-        <v>-1.726815655</v>
+      <c r="E189" s="1">
+        <v>-2.1505606424564574</v>
       </c>
     </row>
     <row r="190" spans="1:5">
@@ -8335,8 +8657,8 @@
       <c r="D190" s="1">
         <v>18800</v>
       </c>
-      <c r="E190">
-        <v>-1.7648707830000001</v>
+      <c r="E190" s="1">
+        <v>-2.1976604483392128</v>
       </c>
     </row>
     <row r="191" spans="1:5">
@@ -8349,8 +8671,8 @@
       <c r="D191" s="1">
         <v>18900</v>
       </c>
-      <c r="E191">
-        <v>-1.723468861</v>
+      <c r="E191" s="1">
+        <v>-2.1312822514972827</v>
       </c>
     </row>
     <row r="192" spans="1:5">
@@ -8363,8 +8685,8 @@
       <c r="D192" s="1">
         <v>19000</v>
       </c>
-      <c r="E192">
-        <v>-1.765382284</v>
+      <c r="E192" s="1">
+        <v>-2.1397936582698787</v>
       </c>
     </row>
     <row r="193" spans="1:5">
@@ -8377,8 +8699,8 @@
       <c r="D193" s="1">
         <v>19100</v>
       </c>
-      <c r="E193">
-        <v>-1.8337954430000001</v>
+      <c r="E193" s="1">
+        <v>-2.2298181363657412</v>
       </c>
     </row>
     <row r="194" spans="1:5">
@@ -8391,8 +8713,8 @@
       <c r="D194" s="1">
         <v>19200</v>
       </c>
-      <c r="E194">
-        <v>-1.8384033550000001</v>
+      <c r="E194" s="1">
+        <v>-2.2698230849648073</v>
       </c>
     </row>
     <row r="195" spans="1:5">
@@ -8405,8 +8727,8 @@
       <c r="D195" s="1">
         <v>19300</v>
       </c>
-      <c r="E195">
-        <v>-1.8002136120000001</v>
+      <c r="E195" s="1">
+        <v>-2.2335284862800995</v>
       </c>
     </row>
     <row r="196" spans="1:5">
@@ -8419,8 +8741,8 @@
       <c r="D196" s="1">
         <v>19400</v>
       </c>
-      <c r="E196">
-        <v>-1.823977395</v>
+      <c r="E196" s="1">
+        <v>-2.2687475634725454</v>
       </c>
     </row>
     <row r="197" spans="1:5">
@@ -8433,8 +8755,8 @@
       <c r="D197" s="1">
         <v>19500</v>
       </c>
-      <c r="E197">
-        <v>-1.836812551</v>
+      <c r="E197" s="1">
+        <v>-2.2775368514701189</v>
       </c>
     </row>
     <row r="198" spans="1:5">
@@ -8447,8 +8769,8 @@
       <c r="D198" s="1">
         <v>19600</v>
       </c>
-      <c r="E198">
-        <v>-1.9341372800000001</v>
+      <c r="E198" s="1">
+        <v>-2.2301050428529412</v>
       </c>
     </row>
     <row r="199" spans="1:5">
@@ -8461,8 +8783,8 @@
       <c r="D199" s="1">
         <v>19700</v>
       </c>
-      <c r="E199">
-        <v>-1.745698679</v>
+      <c r="E199" s="1">
+        <v>-2.1730616361131885</v>
       </c>
     </row>
     <row r="200" spans="1:5">
@@ -8475,8 +8797,8 @@
       <c r="D200" s="1">
         <v>19800</v>
       </c>
-      <c r="E200">
-        <v>-1.6974873109999999</v>
+      <c r="E200" s="1">
+        <v>-2.1223817396741063</v>
       </c>
     </row>
     <row r="201" spans="1:5">
@@ -8489,8 +8811,8 @@
       <c r="D201" s="1">
         <v>19900</v>
       </c>
-      <c r="E201">
-        <v>-1.727181353</v>
+      <c r="E201" s="1">
+        <v>-2.1336776320461111</v>
       </c>
     </row>
     <row r="202" spans="1:5">
@@ -8503,8 +8825,8 @@
       <c r="D202" s="1">
         <v>20000</v>
       </c>
-      <c r="E202">
-        <v>-1.705393581</v>
+      <c r="E202" s="1">
+        <v>-2.1067863815609593</v>
       </c>
     </row>
     <row r="203" spans="1:5">
@@ -8517,8 +8839,8 @@
       <c r="D203" s="1">
         <v>20100</v>
       </c>
-      <c r="E203">
-        <v>-1.717167294</v>
+      <c r="E203" s="1">
+        <v>-2.1255575302468666</v>
       </c>
     </row>
     <row r="204" spans="1:5">
@@ -8531,8 +8853,8 @@
       <c r="D204" s="1">
         <v>20200</v>
       </c>
-      <c r="E204">
-        <v>-1.751173074</v>
+      <c r="E204" s="1">
+        <v>-2.1904513464096826</v>
       </c>
     </row>
     <row r="205" spans="1:5">
@@ -8545,8 +8867,8 @@
       <c r="D205" s="1">
         <v>20300</v>
       </c>
-      <c r="E205">
-        <v>-1.8015969919999999</v>
+      <c r="E205" s="1">
+        <v>-2.253814227838828</v>
       </c>
     </row>
     <row r="206" spans="1:5">
@@ -8559,8 +8881,8 @@
       <c r="D206" s="1">
         <v>20400</v>
       </c>
-      <c r="E206">
-        <v>-1.8522599580000001</v>
+      <c r="E206" s="1">
+        <v>-2.3090985267097324</v>
       </c>
     </row>
     <row r="207" spans="1:5">
@@ -8573,8 +8895,8 @@
       <c r="D207" s="1">
         <v>20500</v>
       </c>
-      <c r="E207">
-        <v>-1.8333397979999999</v>
+      <c r="E207" s="1">
+        <v>-2.2671786115955244</v>
       </c>
     </row>
     <row r="208" spans="1:5">
@@ -8587,8 +8909,8 @@
       <c r="D208" s="1">
         <v>20600</v>
       </c>
-      <c r="E208">
-        <v>-1.7208891049999999</v>
+      <c r="E208" s="1">
+        <v>-2.1373273357735281</v>
       </c>
     </row>
     <row r="209" spans="1:5">
@@ -8601,8 +8923,8 @@
       <c r="D209" s="1">
         <v>20700</v>
       </c>
-      <c r="E209">
-        <v>-1.7570215250000001</v>
+      <c r="E209" s="1">
+        <v>-2.16273432505914</v>
       </c>
     </row>
     <row r="210" spans="1:5">
@@ -8615,8 +8937,8 @@
       <c r="D210" s="1">
         <v>20800</v>
       </c>
-      <c r="E210">
-        <v>-1.787667594</v>
+      <c r="E210" s="1">
+        <v>-2.1958470694340035</v>
       </c>
     </row>
     <row r="211" spans="1:5">
@@ -8629,8 +8951,8 @@
       <c r="D211" s="1">
         <v>20900</v>
       </c>
-      <c r="E211">
-        <v>-1.789176203</v>
+      <c r="E211" s="1">
+        <v>-2.2079099681985181</v>
       </c>
     </row>
     <row r="212" spans="1:5">
@@ -8643,8 +8965,8 @@
       <c r="D212" s="1">
         <v>21000</v>
       </c>
-      <c r="E212">
-        <v>-1.8008614119999999</v>
+      <c r="E212" s="1">
+        <v>-2.2262264501788414</v>
       </c>
     </row>
     <row r="213" spans="1:5">
@@ -8657,8 +8979,8 @@
       <c r="D213" s="1">
         <v>21100</v>
       </c>
-      <c r="E213">
-        <v>-1.8104699049999999</v>
+      <c r="E213" s="1">
+        <v>-2.2302941955692757</v>
       </c>
     </row>
     <row r="214" spans="1:5">
@@ -8671,8 +8993,8 @@
       <c r="D214" s="1">
         <v>21200</v>
       </c>
-      <c r="E214">
-        <v>-1.8312098349999999</v>
+      <c r="E214" s="1">
+        <v>-2.2302276518395217</v>
       </c>
     </row>
     <row r="215" spans="1:5">
@@ -8685,8 +9007,8 @@
       <c r="D215" s="1">
         <v>21300</v>
       </c>
-      <c r="E215">
-        <v>-1.8881505190000001</v>
+      <c r="E215" s="1">
+        <v>-2.2849757981723742</v>
       </c>
     </row>
     <row r="216" spans="1:5">
@@ -8699,8 +9021,8 @@
       <c r="D216" s="1">
         <v>21400</v>
       </c>
-      <c r="E216">
-        <v>-1.8867136529999999</v>
+      <c r="E216" s="1">
+        <v>-2.2808430886359501</v>
       </c>
     </row>
     <row r="217" spans="1:5">
@@ -8713,8 +9035,8 @@
       <c r="D217" s="1">
         <v>21500</v>
       </c>
-      <c r="E217">
-        <v>-1.8301641179999999</v>
+      <c r="E217" s="1">
+        <v>-2.2306545164876703</v>
       </c>
     </row>
     <row r="218" spans="1:5">
@@ -8727,8 +9049,8 @@
       <c r="D218" s="1">
         <v>21600</v>
       </c>
-      <c r="E218">
-        <v>-1.9683476419999999</v>
+      <c r="E218" s="1">
+        <v>-2.2198926202958469</v>
       </c>
     </row>
     <row r="219" spans="1:5">
@@ -8741,8 +9063,8 @@
       <c r="D219" s="1">
         <v>21700</v>
       </c>
-      <c r="E219">
-        <v>-1.8507639520000001</v>
+      <c r="E219" s="1">
+        <v>-2.2389077843285339</v>
       </c>
     </row>
     <row r="220" spans="1:5">
@@ -8755,8 +9077,8 @@
       <c r="D220" s="1">
         <v>21800</v>
       </c>
-      <c r="E220">
-        <v>-1.8302833940000001</v>
+      <c r="E220" s="1">
+        <v>-2.1874896655621745</v>
       </c>
     </row>
     <row r="221" spans="1:5">
@@ -8769,8 +9091,8 @@
       <c r="D221" s="1">
         <v>21900</v>
       </c>
-      <c r="E221">
-        <v>-2.0263054619999998</v>
+      <c r="E221" s="1">
+        <v>-2.1623389508183792</v>
       </c>
     </row>
     <row r="222" spans="1:5">
@@ -8783,8 +9105,8 @@
       <c r="D222" s="1">
         <v>22000</v>
       </c>
-      <c r="E222">
-        <v>-1.8077345250000001</v>
+      <c r="E222" s="1">
+        <v>-2.1523337715174402</v>
       </c>
     </row>
     <row r="223" spans="1:5">
